--- a/results/Total - wyniki/Total - podsumowanie.xlsx
+++ b/results/Total - wyniki/Total - podsumowanie.xlsx
@@ -12,6 +12,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hobby i przyjemności" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transport i noclegi" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Podróże" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Abonamenty i usługi" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Leki i zdrowie" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Książki i nauka" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -48,7 +51,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -63,17 +66,41 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
@@ -379,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,6 +417,9 @@
     <col customWidth="1" max="2" min="2" width="14"/>
     <col customWidth="1" max="3" min="3" width="14"/>
     <col customWidth="1" max="4" min="4" width="14"/>
+    <col customWidth="1" max="5" min="5" width="14"/>
+    <col customWidth="1" max="8" min="8" width="10"/>
+    <col customWidth="1" max="9" min="9" width="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -409,6 +439,17 @@
           <t>Przychody [zł]:</t>
         </is>
       </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Nadwyżki [zł]:</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Całkowita nadwyżka przychodów:</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
@@ -425,6 +466,19 @@
       <c r="D2" s="1" t="n">
         <v>3903.85</v>
       </c>
+      <c r="E2" s="1" t="n">
+        <v>1182.33</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>[zł]</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>[% przychodów]</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
@@ -441,6 +495,15 @@
       <c r="D3" s="1" t="n">
         <v>4095</v>
       </c>
+      <c r="E3" s="1" t="n">
+        <v>1084</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>15370.27</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>30.29</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
@@ -457,8 +520,17 @@
       <c r="D4" s="1" t="n">
         <v>592.33</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>856.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
@@ -485,7 +557,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Grudzień 2098 - 500zł</t>
         </is>
@@ -507,12 +579,12 @@
       <c r="N1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -577,7 +649,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Styczeń 2099 - 350zł</t>
         </is>
@@ -585,12 +657,12 @@
       <c r="B4" s="1" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -607,7 +679,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>Luty 2099 - 330zł</t>
         </is>
@@ -615,12 +687,12 @@
       <c r="B7" s="1" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -647,7 +719,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="5" t="inlineStr">
         <is>
           <t>Marzec 2099 - 200zł</t>
         </is>
@@ -655,12 +727,12 @@
       <c r="B11" s="1" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -677,7 +749,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>Kwiecień 2099 - 290zł</t>
         </is>
@@ -685,12 +757,12 @@
       <c r="B14" s="1" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -727,7 +799,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Czerwiec 2099 - 2500zł</t>
         </is>
@@ -735,12 +807,12 @@
       <c r="B19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -757,7 +829,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Lipiec 2099 - 220zł</t>
         </is>
@@ -765,12 +837,12 @@
       <c r="B22" s="1" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -797,7 +869,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Sierpień 2099 - 430zł</t>
         </is>
@@ -805,12 +877,12 @@
       <c r="B26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -837,7 +909,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Wrzesień 2099 - 850zł</t>
         </is>
@@ -845,12 +917,12 @@
       <c r="B30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -887,7 +959,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="5" t="inlineStr">
         <is>
           <t>Październik 2099 - 99zł</t>
         </is>
@@ -895,12 +967,12 @@
       <c r="B35" s="1" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="inlineStr">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -917,7 +989,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="5" t="inlineStr">
         <is>
           <t>Listopad 2099 - 70zł</t>
         </is>
@@ -925,12 +997,12 @@
       <c r="B38" s="1" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="inlineStr">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -947,7 +1019,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="5" t="inlineStr">
         <is>
           <t>Grudzień 2099 - 80zł</t>
         </is>
@@ -955,12 +1027,12 @@
       <c r="B41" s="1" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1019,7 +1091,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Grudzień 2098 - 105zł</t>
         </is>
@@ -1041,12 +1113,12 @@
       <c r="N1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1121,7 +1193,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Styczeń 2099 - 124zł</t>
         </is>
@@ -1129,12 +1201,12 @@
       <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1171,7 +1243,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Luty 2099 - 117zł</t>
         </is>
@@ -1179,12 +1251,12 @@
       <c r="B10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1221,7 +1293,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="5" t="inlineStr">
         <is>
           <t>Marzec 2099 - 105zł</t>
         </is>
@@ -1229,12 +1301,12 @@
       <c r="B15" s="1" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1261,7 +1333,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="5" t="inlineStr">
         <is>
           <t>Kwiecień 2099 - 80zł</t>
         </is>
@@ -1269,12 +1341,12 @@
       <c r="B19" s="1" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1291,7 +1363,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>Maj 2099 - 104zł</t>
         </is>
@@ -1299,12 +1371,12 @@
       <c r="B22" s="1" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="inlineStr">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1331,7 +1403,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Czerwiec 2099 - 180zł</t>
         </is>
@@ -1339,12 +1411,12 @@
       <c r="B26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1371,7 +1443,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Lipiec 2099 - 20zł</t>
         </is>
@@ -1379,12 +1451,12 @@
       <c r="B30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1401,7 +1473,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Sierpień 2099 - 42zł</t>
         </is>
@@ -1409,12 +1481,12 @@
       <c r="B33" s="1" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1441,7 +1513,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Październik 2099 - 90zł</t>
         </is>
@@ -1449,12 +1521,12 @@
       <c r="B37" s="1" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1471,7 +1543,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Grudzień 2099 - 70zł</t>
         </is>
@@ -1479,12 +1551,12 @@
       <c r="B40" s="1" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1552,7 +1624,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Grudzień 2098 - 105zł</t>
         </is>
@@ -1574,12 +1646,12 @@
       <c r="N1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1654,7 +1726,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>Styczeń 2099 - 117zł</t>
         </is>
@@ -1662,12 +1734,12 @@
       <c r="B5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1704,7 +1776,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>Luty 2099 - 192zł</t>
         </is>
@@ -1712,12 +1784,12 @@
       <c r="B10" s="1" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1764,7 +1836,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="5" t="inlineStr">
         <is>
           <t>Marzec 2099 - 65zł</t>
         </is>
@@ -1772,12 +1844,12 @@
       <c r="B16" s="1" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1804,7 +1876,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>Kwiecień 2099 - 50zł</t>
         </is>
@@ -1812,12 +1884,12 @@
       <c r="B20" s="1" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1834,7 +1906,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="5" t="inlineStr">
         <is>
           <t>Maj 2099 - 50zł</t>
         </is>
@@ -1842,12 +1914,12 @@
       <c r="B23" s="1" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1864,7 +1936,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>Czerwiec 2099 - 90zł</t>
         </is>
@@ -1872,12 +1944,12 @@
       <c r="B26" s="1" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="inlineStr">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1904,7 +1976,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="5" t="inlineStr">
         <is>
           <t>Lipiec 2099 - 40zł</t>
         </is>
@@ -1912,12 +1984,12 @@
       <c r="B30" s="1" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="inlineStr">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1934,7 +2006,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="5" t="inlineStr">
         <is>
           <t>Wrzesień 2099 - 85zł</t>
         </is>
@@ -1942,12 +2014,12 @@
       <c r="B33" s="1" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="inlineStr">
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -1974,7 +2046,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="5" t="inlineStr">
         <is>
           <t>Październik 2099 - 40zł</t>
         </is>
@@ -1982,12 +2054,12 @@
       <c r="B37" s="1" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -2004,7 +2076,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="5" t="inlineStr">
         <is>
           <t>Listopad 2099 - 85zł</t>
         </is>
@@ -2012,12 +2084,12 @@
       <c r="B40" s="1" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="inlineStr">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -2044,7 +2116,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="5" t="inlineStr">
         <is>
           <t>Grudzień 2099 - 75zł</t>
         </is>
@@ -2052,12 +2124,12 @@
       <c r="B44" s="1" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -2126,7 +2198,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>Maj 2099 - 470zł</t>
         </is>
@@ -2148,12 +2220,12 @@
       <c r="N1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -2238,7 +2310,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>Sierpień 2099 - 770zł</t>
         </is>
@@ -2246,12 +2318,12 @@
       <c r="B6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -2308,7 +2380,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="5" t="inlineStr">
         <is>
           <t>Październik 2099 - 1250zł</t>
         </is>
@@ -2316,12 +2388,12 @@
       <c r="B13" s="1" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -2358,7 +2430,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="5" t="inlineStr">
         <is>
           <t>Grudzień 2099 - 200zł</t>
         </is>
@@ -2366,12 +2438,12 @@
       <c r="B18" s="1" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
-        <is>
-          <t>Co?</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
         <is>
           <t>Kwota [zł]</t>
         </is>
@@ -2408,4 +2480,1245 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="9"/>
+    <col customWidth="1" max="7" min="7" width="14"/>
+    <col customWidth="1" max="8" min="8" width="14"/>
+    <col customWidth="1" max="12" min="12" width="14"/>
+    <col customWidth="1" max="13" min="13" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Grudzień 2098 - 80zł</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Dla sum miesięcznych:</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Dla wydatków indywidualnych:</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Średnia [zł]:</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Mediana [zł]:</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Std [zł]:</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Średnia [zł]:</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Mediana [zł]:</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Std [zł]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>58.46</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>pralnia</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Styczeń 2099 - 45zł</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Luty 2099 - 65zł</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hbo go</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>Marzec 2099 - 65zł</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>hbo go</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>Kwiecień 2099 - 65zł</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>hbo go</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>Maj 2099 - 105zł</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>hbo go</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>fryzjer</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>Czerwiec 2099 - 45zł</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>Lipiec 2099 - 25zł</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>Sierpień 2099 - 25zł</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>Wrzesień 2099 - 65zł</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>fryzjer</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>Październik 2099 - 45zł</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>Listopad 2099 - 65zł</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>hbo go</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>Grudzień 2099 - 65zł</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>telefon</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>spotify</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>hbo go</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="10"/>
+    <col customWidth="1" max="7" min="7" width="14"/>
+    <col customWidth="1" max="8" min="8" width="14"/>
+    <col customWidth="1" max="12" min="12" width="14"/>
+    <col customWidth="1" max="13" min="13" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Grudzień 2098 - 90zł</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Dla sum miesięcznych:</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Dla wydatków indywidualnych:</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Średnia [zł]:</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Mediana [zł]:</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Std [zł]:</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Średnia [zł]:</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Mediana [zł]:</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Std [zł]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>lekarz</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>36.32</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>47.29</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>37.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Styczeń 2099 - 24zł</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>apteka</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Kwiecień 2099 - 18zł</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>apteka</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Maj 2099 - 34zł</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>apteka</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Lipiec 2099 - 120zł</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>dentysta</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>Listopad 2099 - 20zł</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>apteka</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Grudzień 2099 - 25zł</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>apteka</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="24"/>
+    <col customWidth="1" max="7" min="7" width="14"/>
+    <col customWidth="1" max="8" min="8" width="14"/>
+    <col customWidth="1" max="12" min="12" width="14"/>
+    <col customWidth="1" max="13" min="13" width="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Luty 2099 - 90zł</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="n"/>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Dla sum miesięcznych:</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Dla wydatków indywidualnych:</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>Średnia [zł]:</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>Mediana [zł]:</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>Std [zł]:</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Średnia [zł]:</t>
+        </is>
+      </c>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>Mediana [zł]:</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>Std [zł]:</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>kurs internetowy 'xyz'</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>31.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Kwiecień 2099 - 40zł</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>książka 'xyz'</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Maj 2099 - 80zł</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>książka 'wxy'</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Sierpień 2099 - 120zł</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>kurs internetowy 'wxy'</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>Listopad 2099 - 35zł</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>Co?</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Kwota [zł]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>książka 'wxyz'</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>